--- a/bhp/lims/resources/results_ranges.xlsx
+++ b/bhp/lims/resources/results_ranges.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">'Analysis Specifications'!$A$1:$J$197</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="131">
   <si>
     <t>keyword</t>
   </si>
@@ -381,15 +381,46 @@
   </si>
   <si>
     <t>WBC</t>
+  </si>
+  <si>
+    <t>14d</t>
+  </si>
+  <si>
+    <t>730d</t>
+  </si>
+  <si>
+    <t>8d</t>
+  </si>
+  <si>
+    <t>180d</t>
+  </si>
+  <si>
+    <t>181d</t>
+  </si>
+  <si>
+    <t>90d</t>
+  </si>
+  <si>
+    <t>91d</t>
+  </si>
+  <si>
+    <t>365d</t>
+  </si>
+  <si>
+    <t>366d</t>
+  </si>
+  <si>
+    <t> MONO1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -487,7 +518,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -524,6 +555,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -532,7 +571,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel_BuiltIn_Bad" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -542,25 +581,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E126" activeCellId="0" sqref="E126"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A253" activeCellId="0" sqref="A253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.15816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.6173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.719387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.219387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="2" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.1581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -608,6 +643,7 @@
       <c r="D2" s="7" t="n">
         <v>44</v>
       </c>
+      <c r="E2" s="0"/>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
@@ -617,6 +653,7 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="0"/>
       <c r="J2" s="2" t="n">
         <v>20</v>
       </c>
@@ -634,6 +671,7 @@
       <c r="D3" s="7" t="n">
         <v>54</v>
       </c>
+      <c r="E3" s="0"/>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
@@ -643,6 +681,7 @@
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I3" s="0"/>
       <c r="J3" s="2" t="n">
         <v>20</v>
       </c>
@@ -660,6 +699,7 @@
       <c r="D4" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="E4" s="0"/>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
@@ -669,6 +709,7 @@
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I4" s="0"/>
       <c r="J4" s="2" t="n">
         <v>20</v>
       </c>
@@ -686,6 +727,7 @@
       <c r="D5" s="7" t="n">
         <v>51</v>
       </c>
+      <c r="E5" s="0"/>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
@@ -695,6 +737,8 @@
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
@@ -709,6 +753,7 @@
       <c r="D6" s="7" t="n">
         <v>250</v>
       </c>
+      <c r="E6" s="0"/>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
@@ -721,6 +766,7 @@
       <c r="I6" s="2" t="n">
         <v>1275</v>
       </c>
+      <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
@@ -735,6 +781,7 @@
       <c r="D7" s="7" t="n">
         <v>231</v>
       </c>
+      <c r="E7" s="0"/>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
@@ -747,6 +794,7 @@
       <c r="I7" s="2" t="n">
         <v>953</v>
       </c>
+      <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
@@ -761,6 +809,7 @@
       <c r="D8" s="7" t="n">
         <v>449</v>
       </c>
+      <c r="E8" s="0"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
@@ -773,6 +822,7 @@
       <c r="I8" s="2" t="n">
         <v>953</v>
       </c>
+      <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
@@ -787,6 +837,7 @@
       <c r="D9" s="7" t="n">
         <v>462</v>
       </c>
+      <c r="E9" s="0"/>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
@@ -799,6 +850,7 @@
       <c r="I9" s="2" t="n">
         <v>954</v>
       </c>
+      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
@@ -813,6 +865,7 @@
       <c r="D10" s="7" t="n">
         <v>106</v>
       </c>
+      <c r="E10" s="0"/>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
@@ -825,6 +878,7 @@
       <c r="I10" s="2" t="n">
         <v>561</v>
       </c>
+      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
@@ -839,6 +893,7 @@
       <c r="D11" s="7" t="n">
         <v>281</v>
       </c>
+      <c r="E11" s="0"/>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
@@ -851,6 +906,7 @@
       <c r="I11" s="2" t="n">
         <v>953</v>
       </c>
+      <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
@@ -865,6 +921,7 @@
       <c r="D12" s="7" t="n">
         <v>269</v>
       </c>
+      <c r="E12" s="0"/>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
@@ -877,6 +934,7 @@
       <c r="I12" s="2" t="n">
         <v>955</v>
       </c>
+      <c r="J12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
@@ -891,6 +949,7 @@
       <c r="D13" s="7" t="n">
         <v>300</v>
       </c>
+      <c r="E13" s="0"/>
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
@@ -903,6 +962,7 @@
       <c r="I13" s="2" t="n">
         <v>953</v>
       </c>
+      <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
@@ -917,6 +977,7 @@
       <c r="D14" s="7" t="n">
         <v>390</v>
       </c>
+      <c r="E14" s="0"/>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
@@ -929,6 +990,7 @@
       <c r="I14" s="2" t="n">
         <v>956</v>
       </c>
+      <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
@@ -943,6 +1005,7 @@
       <c r="D15" s="7" t="n">
         <v>187</v>
       </c>
+      <c r="E15" s="0"/>
       <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
@@ -955,6 +1018,7 @@
       <c r="I15" s="2" t="n">
         <v>953</v>
       </c>
+      <c r="J15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
@@ -969,6 +1033,7 @@
       <c r="D16" s="7" t="n">
         <v>57</v>
       </c>
+      <c r="E16" s="0"/>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
@@ -981,6 +1046,7 @@
       <c r="I16" s="2" t="n">
         <v>290</v>
       </c>
+      <c r="J16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
@@ -995,6 +1061,7 @@
       <c r="D17" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="E17" s="0"/>
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1007,6 +1074,7 @@
       <c r="I17" s="2" t="n">
         <v>117</v>
       </c>
+      <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
@@ -1021,6 +1089,7 @@
       <c r="D18" s="7" t="n">
         <v>55</v>
       </c>
+      <c r="E18" s="0"/>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1033,6 +1102,7 @@
       <c r="I18" s="2" t="n">
         <v>118</v>
       </c>
+      <c r="J18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
@@ -1047,6 +1117,7 @@
       <c r="D19" s="7" t="n">
         <v>60</v>
       </c>
+      <c r="E19" s="0"/>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1059,6 +1130,7 @@
       <c r="I19" s="2" t="n">
         <v>119</v>
       </c>
+      <c r="J19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
@@ -1073,6 +1145,7 @@
       <c r="D20" s="7" t="n">
         <v>57</v>
       </c>
+      <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1085,6 +1158,7 @@
       <c r="I20" s="2" t="n">
         <v>120</v>
       </c>
+      <c r="J20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
@@ -1099,6 +1173,7 @@
       <c r="D21" s="7" t="n">
         <v>42</v>
       </c>
+      <c r="E21" s="0"/>
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1111,6 +1186,7 @@
       <c r="I21" s="2" t="n">
         <v>210</v>
       </c>
+      <c r="J21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
@@ -1125,6 +1201,7 @@
       <c r="D22" s="7" t="n">
         <v>39</v>
       </c>
+      <c r="E22" s="0"/>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1137,6 +1214,7 @@
       <c r="I22" s="2" t="n">
         <v>121</v>
       </c>
+      <c r="J22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
@@ -1151,6 +1229,7 @@
       <c r="D23" s="7" t="n">
         <v>26</v>
       </c>
+      <c r="E23" s="0"/>
       <c r="F23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1163,6 +1242,7 @@
       <c r="I23" s="2" t="n">
         <v>122</v>
       </c>
+      <c r="J23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
@@ -1177,6 +1257,7 @@
       <c r="D24" s="7" t="n">
         <v>23</v>
       </c>
+      <c r="E24" s="0"/>
       <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1189,6 +1270,7 @@
       <c r="I24" s="2" t="n">
         <v>123</v>
       </c>
+      <c r="J24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
@@ -1203,6 +1285,7 @@
       <c r="D25" s="7" t="n">
         <v>8</v>
       </c>
+      <c r="E25" s="0"/>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1215,6 +1298,7 @@
       <c r="I25" s="2" t="n">
         <v>40</v>
       </c>
+      <c r="J25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
@@ -1229,6 +1313,7 @@
       <c r="D26" s="7" t="n">
         <v>31</v>
       </c>
+      <c r="E26" s="0"/>
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1241,6 +1326,7 @@
       <c r="I26" s="2" t="n">
         <v>40</v>
       </c>
+      <c r="J26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
@@ -1255,6 +1341,7 @@
       <c r="D27" s="7" t="n">
         <v>39</v>
       </c>
+      <c r="E27" s="0"/>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1267,6 +1354,7 @@
       <c r="I27" s="2" t="n">
         <v>40</v>
       </c>
+      <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
@@ -1281,6 +1369,7 @@
       <c r="D28" s="7" t="n">
         <v>155</v>
       </c>
+      <c r="E28" s="0"/>
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1293,6 +1382,7 @@
       <c r="I28" s="2" t="n">
         <v>310</v>
       </c>
+      <c r="J28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
@@ -1307,6 +1397,7 @@
       <c r="D29" s="7" t="n">
         <v>122</v>
       </c>
+      <c r="E29" s="0"/>
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1319,6 +1410,7 @@
       <c r="I29" s="2" t="n">
         <v>622</v>
       </c>
+      <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
@@ -1333,6 +1425,7 @@
       <c r="D30" s="7" t="n">
         <v>110</v>
       </c>
+      <c r="E30" s="0"/>
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1345,6 +1438,7 @@
       <c r="I30" s="2" t="n">
         <v>138</v>
       </c>
+      <c r="J30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
@@ -1359,6 +1453,7 @@
       <c r="D31" s="7" t="n">
         <v>84</v>
       </c>
+      <c r="E31" s="0"/>
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1371,6 +1466,7 @@
       <c r="I31" s="2" t="n">
         <v>138</v>
       </c>
+      <c r="J31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
@@ -1385,6 +1481,7 @@
       <c r="D32" s="7" t="n">
         <v>89</v>
       </c>
+      <c r="E32" s="0"/>
       <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
@@ -1397,6 +1494,7 @@
       <c r="I32" s="2" t="n">
         <v>138</v>
       </c>
+      <c r="J32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
@@ -1411,6 +1509,7 @@
       <c r="D33" s="7" t="n">
         <v>41</v>
       </c>
+      <c r="E33" s="0"/>
       <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
@@ -1423,6 +1522,7 @@
       <c r="I33" s="2" t="n">
         <v>205</v>
       </c>
+      <c r="J33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
@@ -1437,6 +1537,7 @@
       <c r="D34" s="7" t="n">
         <v>56</v>
       </c>
+      <c r="E34" s="0"/>
       <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1449,6 +1550,7 @@
       <c r="I34" s="2" t="n">
         <v>138</v>
       </c>
+      <c r="J34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
@@ -1463,6 +1565,7 @@
       <c r="D35" s="7" t="n">
         <v>52</v>
       </c>
+      <c r="E35" s="0"/>
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
@@ -1475,6 +1578,7 @@
       <c r="I35" s="2" t="n">
         <v>138</v>
       </c>
+      <c r="J35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
@@ -1489,6 +1593,7 @@
       <c r="D36" s="7" t="n">
         <v>51</v>
       </c>
+      <c r="E36" s="0"/>
       <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1501,6 +1606,7 @@
       <c r="I36" s="2" t="n">
         <v>138</v>
       </c>
+      <c r="J36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
@@ -1515,6 +1621,7 @@
       <c r="D37" s="7" t="n">
         <v>35</v>
       </c>
+      <c r="E37" s="0"/>
       <c r="F37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1527,6 +1634,7 @@
       <c r="I37" s="2" t="n">
         <v>138</v>
       </c>
+      <c r="J37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
@@ -1541,6 +1649,7 @@
       <c r="D38" s="7" t="n">
         <v>27</v>
       </c>
+      <c r="E38" s="0"/>
       <c r="F38" s="2" t="s">
         <v>28</v>
       </c>
@@ -1553,6 +1662,7 @@
       <c r="I38" s="2" t="n">
         <v>138</v>
       </c>
+      <c r="J38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
@@ -1567,6 +1677,7 @@
       <c r="D39" s="7" t="n">
         <v>0.06</v>
       </c>
+      <c r="E39" s="0"/>
       <c r="F39" s="2" t="s">
         <v>12</v>
       </c>
@@ -1576,6 +1687,8 @@
       <c r="H39" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
@@ -1590,6 +1703,7 @@
       <c r="D40" s="7" t="n">
         <v>1.1</v>
       </c>
+      <c r="E40" s="0"/>
       <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
@@ -1599,6 +1713,8 @@
       <c r="H40" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
@@ -1613,6 +1729,7 @@
       <c r="D41" s="7" t="n">
         <v>4.5</v>
       </c>
+      <c r="E41" s="0"/>
       <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
@@ -1622,6 +1739,8 @@
       <c r="H41" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
@@ -1636,6 +1755,7 @@
       <c r="D42" s="7" t="n">
         <v>34</v>
       </c>
+      <c r="E42" s="0"/>
       <c r="F42" s="2" t="s">
         <v>12</v>
       </c>
@@ -1648,6 +1768,7 @@
       <c r="I42" s="2" t="n">
         <v>88</v>
       </c>
+      <c r="J42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
@@ -1677,6 +1798,7 @@
       <c r="I43" s="2" t="n">
         <v>356</v>
       </c>
+      <c r="J43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
@@ -1706,6 +1828,7 @@
       <c r="I44" s="2" t="n">
         <v>356</v>
       </c>
+      <c r="J44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
@@ -1735,6 +1858,7 @@
       <c r="I45" s="2" t="n">
         <v>356</v>
       </c>
+      <c r="J45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
@@ -1764,6 +1888,7 @@
       <c r="I46" s="2" t="n">
         <v>356</v>
       </c>
+      <c r="J46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
@@ -1793,6 +1918,7 @@
       <c r="I47" s="2" t="n">
         <v>356</v>
       </c>
+      <c r="J47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
@@ -1822,6 +1948,7 @@
       <c r="I48" s="2" t="n">
         <v>54</v>
       </c>
+      <c r="J48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
@@ -1851,6 +1978,7 @@
       <c r="I49" s="2" t="n">
         <v>54</v>
       </c>
+      <c r="J49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
@@ -1865,6 +1993,7 @@
       <c r="D50" s="7" t="n">
         <v>21</v>
       </c>
+      <c r="E50" s="0"/>
       <c r="F50" s="2" t="s">
         <v>12</v>
       </c>
@@ -1877,6 +2006,7 @@
       <c r="I50" s="2" t="n">
         <v>54</v>
       </c>
+      <c r="J50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
@@ -1891,6 +2021,7 @@
       <c r="D51" s="7" t="n">
         <v>30</v>
       </c>
+      <c r="E51" s="0"/>
       <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
@@ -1903,6 +2034,7 @@
       <c r="I51" s="2" t="n">
         <v>75</v>
       </c>
+      <c r="J51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
@@ -1917,6 +2049,7 @@
       <c r="D52" s="7" t="n">
         <v>2.8</v>
       </c>
+      <c r="E52" s="0"/>
       <c r="F52" s="2" t="s">
         <v>12</v>
       </c>
@@ -1946,6 +2079,7 @@
       <c r="D53" s="7" t="n">
         <v>2.6</v>
       </c>
+      <c r="E53" s="0"/>
       <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
@@ -1975,6 +2109,7 @@
       <c r="D54" s="7" t="n">
         <v>2.7</v>
       </c>
+      <c r="E54" s="0"/>
       <c r="F54" s="2" t="s">
         <v>12</v>
       </c>
@@ -2004,6 +2139,7 @@
       <c r="D55" s="7" t="n">
         <v>2.5</v>
       </c>
+      <c r="E55" s="0"/>
       <c r="F55" s="2" t="s">
         <v>12</v>
       </c>
@@ -2033,6 +2169,7 @@
       <c r="D56" s="7" t="n">
         <v>2.5</v>
       </c>
+      <c r="E56" s="0"/>
       <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
@@ -2062,6 +2199,7 @@
       <c r="D57" s="7" t="n">
         <v>2.6</v>
       </c>
+      <c r="E57" s="0"/>
       <c r="F57" s="2" t="s">
         <v>12</v>
       </c>
@@ -2091,6 +2229,7 @@
       <c r="D58" s="7" t="n">
         <v>1527</v>
       </c>
+      <c r="E58" s="0"/>
       <c r="F58" s="2" t="s">
         <v>12</v>
       </c>
@@ -2100,6 +2239,8 @@
       <c r="H58" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
@@ -2114,6 +2255,7 @@
       <c r="D59" s="7" t="n">
         <v>57</v>
       </c>
+      <c r="E59" s="0"/>
       <c r="F59" s="2" t="s">
         <v>12</v>
       </c>
@@ -2123,6 +2265,8 @@
       <c r="H59" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
@@ -2137,6 +2281,7 @@
       <c r="D60" s="7" t="n">
         <v>1053</v>
       </c>
+      <c r="E60" s="0"/>
       <c r="F60" s="2" t="s">
         <v>12</v>
       </c>
@@ -2146,6 +2291,8 @@
       <c r="H60" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
@@ -2160,6 +2307,7 @@
       <c r="D61" s="7" t="n">
         <v>41</v>
       </c>
+      <c r="E61" s="0"/>
       <c r="F61" s="2" t="s">
         <v>12</v>
       </c>
@@ -2169,6 +2317,8 @@
       <c r="H61" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
@@ -2183,6 +2333,7 @@
       <c r="D62" s="7" t="n">
         <v>5.8</v>
       </c>
+      <c r="E62" s="0"/>
       <c r="F62" s="2" t="s">
         <v>12</v>
       </c>
@@ -2195,6 +2346,7 @@
       <c r="I62" s="2" t="n">
         <v>7.77</v>
       </c>
+      <c r="J62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
@@ -2209,6 +2361,7 @@
       <c r="D63" s="7" t="n">
         <v>4.4</v>
       </c>
+      <c r="E63" s="0"/>
       <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
@@ -2221,6 +2374,7 @@
       <c r="I63" s="2" t="n">
         <v>7.77</v>
       </c>
+      <c r="J63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
@@ -2235,6 +2389,7 @@
       <c r="D64" s="7" t="n">
         <v>712</v>
       </c>
+      <c r="E64" s="0"/>
       <c r="F64" s="2" t="s">
         <v>12</v>
       </c>
@@ -2247,6 +2402,7 @@
       <c r="I64" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
@@ -2261,6 +2417,7 @@
       <c r="D65" s="7" t="n">
         <v>652</v>
       </c>
+      <c r="E65" s="0"/>
       <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
@@ -2273,6 +2430,7 @@
       <c r="I65" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
@@ -2287,6 +2445,7 @@
       <c r="D66" s="7" t="n">
         <v>295</v>
       </c>
+      <c r="E66" s="0"/>
       <c r="F66" s="2" t="s">
         <v>12</v>
       </c>
@@ -2299,6 +2458,7 @@
       <c r="I66" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
@@ -2313,6 +2473,7 @@
       <c r="D67" s="7" t="n">
         <v>203</v>
       </c>
+      <c r="E67" s="0"/>
       <c r="F67" s="2" t="s">
         <v>12</v>
       </c>
@@ -2325,6 +2486,7 @@
       <c r="I67" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
@@ -2339,6 +2501,7 @@
       <c r="D68" s="7" t="n">
         <v>201</v>
       </c>
+      <c r="E68" s="0"/>
       <c r="F68" s="2" t="s">
         <v>28</v>
       </c>
@@ -2351,6 +2514,7 @@
       <c r="I68" s="2" t="n">
         <v>1005</v>
       </c>
+      <c r="J68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
@@ -2365,6 +2529,7 @@
       <c r="D69" s="7" t="n">
         <v>476</v>
       </c>
+      <c r="E69" s="0"/>
       <c r="F69" s="2" t="s">
         <v>27</v>
       </c>
@@ -2377,6 +2542,7 @@
       <c r="I69" s="2" t="n">
         <v>2389</v>
       </c>
+      <c r="J69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
@@ -2391,6 +2557,7 @@
       <c r="D70" s="7" t="n">
         <v>228</v>
       </c>
+      <c r="E70" s="0"/>
       <c r="F70" s="2" t="s">
         <v>12</v>
       </c>
@@ -2403,6 +2570,7 @@
       <c r="I70" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
@@ -2417,6 +2585,7 @@
       <c r="D71" s="7" t="n">
         <v>149</v>
       </c>
+      <c r="E71" s="0"/>
       <c r="F71" s="2" t="s">
         <v>12</v>
       </c>
@@ -2429,6 +2598,7 @@
       <c r="I71" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
@@ -2443,6 +2613,7 @@
       <c r="D72" s="7" t="n">
         <v>247</v>
       </c>
+      <c r="E72" s="0"/>
       <c r="F72" s="2" t="s">
         <v>27</v>
       </c>
@@ -2455,6 +2626,7 @@
       <c r="I72" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
@@ -2469,6 +2641,7 @@
       <c r="D73" s="7" t="n">
         <v>154</v>
       </c>
+      <c r="E73" s="0"/>
       <c r="F73" s="2" t="s">
         <v>28</v>
       </c>
@@ -2481,6 +2654,7 @@
       <c r="I73" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
@@ -2495,6 +2669,7 @@
       <c r="D74" s="7" t="n">
         <v>270</v>
       </c>
+      <c r="E74" s="0"/>
       <c r="F74" s="2" t="s">
         <v>27</v>
       </c>
@@ -2507,6 +2682,7 @@
       <c r="I74" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
@@ -2521,6 +2697,7 @@
       <c r="D75" s="7" t="n">
         <v>123</v>
       </c>
+      <c r="E75" s="0"/>
       <c r="F75" s="2" t="s">
         <v>28</v>
       </c>
@@ -2533,6 +2710,7 @@
       <c r="I75" s="2" t="n">
         <v>1490</v>
       </c>
+      <c r="J75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
@@ -2547,6 +2725,7 @@
       <c r="D76" s="7" t="n">
         <v>106</v>
       </c>
+      <c r="E76" s="0"/>
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
@@ -2556,6 +2735,8 @@
       <c r="H76" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
@@ -2570,6 +2751,7 @@
       <c r="D77" s="7" t="n">
         <v>122</v>
       </c>
+      <c r="E77" s="0"/>
       <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
@@ -2579,6 +2761,8 @@
       <c r="H77" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
@@ -2593,6 +2777,7 @@
       <c r="D78" s="7" t="n">
         <v>116</v>
       </c>
+      <c r="E78" s="0"/>
       <c r="F78" s="2" t="s">
         <v>12</v>
       </c>
@@ -2602,6 +2787,8 @@
       <c r="H78" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="I78" s="0"/>
+      <c r="J78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
@@ -2616,6 +2803,7 @@
       <c r="D79" s="7" t="n">
         <v>112</v>
       </c>
+      <c r="E79" s="0"/>
       <c r="F79" s="2" t="s">
         <v>12</v>
       </c>
@@ -2625,6 +2813,8 @@
       <c r="H79" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
@@ -2639,6 +2829,7 @@
       <c r="D80" s="7" t="n">
         <v>111</v>
       </c>
+      <c r="E80" s="0"/>
       <c r="F80" s="2" t="s">
         <v>12</v>
       </c>
@@ -2648,6 +2839,8 @@
       <c r="H80" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I80" s="0"/>
+      <c r="J80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
@@ -2662,6 +2855,7 @@
       <c r="D81" s="7" t="n">
         <v>29</v>
       </c>
+      <c r="E81" s="0"/>
       <c r="F81" s="2" t="s">
         <v>12</v>
       </c>
@@ -2671,6 +2865,7 @@
       <c r="H81" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I81" s="0"/>
       <c r="J81" s="2" t="n">
         <v>11</v>
       </c>
@@ -2700,6 +2895,7 @@
       <c r="H82" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="I82" s="0"/>
       <c r="J82" s="2" t="n">
         <v>8</v>
       </c>
@@ -2729,6 +2925,7 @@
       <c r="H83" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="I83" s="0"/>
       <c r="J83" s="2" t="n">
         <v>8</v>
       </c>
@@ -2758,6 +2955,7 @@
       <c r="H84" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="I84" s="0"/>
       <c r="J84" s="2" t="n">
         <v>8</v>
       </c>
@@ -2775,6 +2973,7 @@
       <c r="D85" s="7" t="n">
         <v>28</v>
       </c>
+      <c r="E85" s="0"/>
       <c r="F85" s="2" t="s">
         <v>12</v>
       </c>
@@ -2784,6 +2983,7 @@
       <c r="H85" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="I85" s="0"/>
       <c r="J85" s="2" t="n">
         <v>8</v>
       </c>
@@ -2801,6 +3001,7 @@
       <c r="D86" s="7" t="n">
         <v>29</v>
       </c>
+      <c r="E86" s="0"/>
       <c r="F86" s="2" t="s">
         <v>12</v>
       </c>
@@ -2810,6 +3011,7 @@
       <c r="H86" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I86" s="0"/>
       <c r="J86" s="2" t="n">
         <v>11</v>
       </c>
@@ -2827,6 +3029,7 @@
       <c r="D87" s="7" t="n">
         <v>87</v>
       </c>
+      <c r="E87" s="0"/>
       <c r="F87" s="2" t="s">
         <v>12</v>
       </c>
@@ -2839,6 +3042,7 @@
       <c r="I87" s="2" t="n">
         <v>117</v>
       </c>
+      <c r="J87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
@@ -2853,6 +3057,7 @@
       <c r="D88" s="7" t="n">
         <v>78</v>
       </c>
+      <c r="E88" s="0"/>
       <c r="F88" s="2" t="s">
         <v>12</v>
       </c>
@@ -2865,6 +3070,7 @@
       <c r="I88" s="2" t="n">
         <v>117</v>
       </c>
+      <c r="J88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
@@ -2879,6 +3085,7 @@
       <c r="D89" s="7" t="n">
         <v>62</v>
       </c>
+      <c r="E89" s="0"/>
       <c r="F89" s="2" t="s">
         <v>12</v>
       </c>
@@ -2891,6 +3098,7 @@
       <c r="I89" s="2" t="n">
         <v>117</v>
       </c>
+      <c r="J89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
@@ -2905,6 +3113,7 @@
       <c r="D90" s="7" t="n">
         <v>34</v>
       </c>
+      <c r="E90" s="0"/>
       <c r="F90" s="2" t="s">
         <v>12</v>
       </c>
@@ -2917,6 +3126,7 @@
       <c r="I90" s="2" t="n">
         <v>58</v>
       </c>
+      <c r="J90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
@@ -2931,6 +3141,7 @@
       <c r="D91" s="7" t="n">
         <v>72</v>
       </c>
+      <c r="E91" s="0"/>
       <c r="F91" s="2" t="s">
         <v>28</v>
       </c>
@@ -2943,6 +3154,7 @@
       <c r="I91" s="2" t="n">
         <v>129</v>
       </c>
+      <c r="J91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
@@ -2957,6 +3169,7 @@
       <c r="D92" s="7" t="n">
         <v>95</v>
       </c>
+      <c r="E92" s="0"/>
       <c r="F92" s="2" t="s">
         <v>27</v>
       </c>
@@ -2969,6 +3182,7 @@
       <c r="I92" s="2" t="n">
         <v>171</v>
       </c>
+      <c r="J92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
@@ -2983,6 +3197,7 @@
       <c r="D93" s="7" t="n">
         <v>31</v>
       </c>
+      <c r="E93" s="0"/>
       <c r="F93" s="2" t="s">
         <v>12</v>
       </c>
@@ -2995,6 +3210,7 @@
       <c r="I93" s="2" t="n">
         <v>58</v>
       </c>
+      <c r="J93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
@@ -3009,6 +3225,7 @@
       <c r="D94" s="7" t="n">
         <v>37</v>
       </c>
+      <c r="E94" s="0"/>
       <c r="F94" s="2" t="s">
         <v>12</v>
       </c>
@@ -3021,6 +3238,7 @@
       <c r="I94" s="2" t="n">
         <v>58</v>
       </c>
+      <c r="J94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
@@ -3035,6 +3253,7 @@
       <c r="D95" s="7" t="n">
         <v>42</v>
       </c>
+      <c r="E95" s="0"/>
       <c r="F95" s="2" t="s">
         <v>12</v>
       </c>
@@ -3047,6 +3266,7 @@
       <c r="I95" s="2" t="n">
         <v>58</v>
       </c>
+      <c r="J95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
@@ -3061,6 +3281,7 @@
       <c r="D96" s="7" t="n">
         <v>47</v>
       </c>
+      <c r="E96" s="0"/>
       <c r="F96" s="2" t="s">
         <v>12</v>
       </c>
@@ -3073,6 +3294,7 @@
       <c r="I96" s="2" t="n">
         <v>58</v>
       </c>
+      <c r="J96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
@@ -3087,6 +3309,7 @@
       <c r="D97" s="7" t="n">
         <v>57</v>
       </c>
+      <c r="E97" s="0"/>
       <c r="F97" s="2" t="s">
         <v>12</v>
       </c>
@@ -3099,6 +3322,7 @@
       <c r="I97" s="2" t="n">
         <v>58</v>
       </c>
+      <c r="J97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
@@ -3113,6 +3337,7 @@
       <c r="D98" s="7" t="n">
         <v>60</v>
       </c>
+      <c r="E98" s="0"/>
       <c r="F98" s="2" t="s">
         <v>12</v>
       </c>
@@ -3125,6 +3350,7 @@
       <c r="I98" s="2" t="n">
         <v>58</v>
       </c>
+      <c r="J98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
@@ -3139,6 +3365,7 @@
       <c r="D99" s="7" t="n">
         <v>68</v>
       </c>
+      <c r="E99" s="0"/>
       <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
@@ -3151,6 +3378,7 @@
       <c r="I99" s="2" t="n">
         <v>58</v>
       </c>
+      <c r="J99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
@@ -3161,6 +3389,7 @@
       </c>
       <c r="C100" s="0"/>
       <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
       <c r="F100" s="2" t="s">
         <v>12</v>
       </c>
@@ -3170,6 +3399,8 @@
       <c r="H100" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
@@ -3180,6 +3411,7 @@
       </c>
       <c r="C101" s="0"/>
       <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
       <c r="F101" s="2" t="s">
         <v>12</v>
       </c>
@@ -3189,6 +3421,8 @@
       <c r="H101" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
@@ -3199,6 +3433,7 @@
       </c>
       <c r="C102" s="0"/>
       <c r="D102" s="0"/>
+      <c r="E102" s="0"/>
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
@@ -3208,6 +3443,8 @@
       <c r="H102" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
@@ -3222,6 +3459,7 @@
       <c r="D103" s="7" t="n">
         <v>0.5</v>
       </c>
+      <c r="E103" s="0"/>
       <c r="F103" s="2" t="s">
         <v>12</v>
       </c>
@@ -3231,6 +3469,8 @@
       <c r="H103" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
@@ -3245,6 +3485,7 @@
       <c r="D104" s="7" t="n">
         <v>8.5</v>
       </c>
+      <c r="E104" s="0"/>
       <c r="F104" s="2" t="s">
         <v>12</v>
       </c>
@@ -3254,6 +3495,8 @@
       <c r="H104" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
@@ -3264,6 +3507,7 @@
       </c>
       <c r="C105" s="0"/>
       <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
       <c r="F105" s="2" t="s">
         <v>12</v>
       </c>
@@ -3273,6 +3517,8 @@
       <c r="H105" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
@@ -3287,6 +3533,7 @@
       <c r="D106" s="7" t="n">
         <v>151</v>
       </c>
+      <c r="E106" s="0"/>
       <c r="F106" s="2" t="s">
         <v>12</v>
       </c>
@@ -3299,6 +3546,7 @@
       <c r="I106" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
@@ -3313,6 +3561,7 @@
       <c r="D107" s="7" t="n">
         <v>185</v>
       </c>
+      <c r="E107" s="0"/>
       <c r="F107" s="2" t="s">
         <v>12</v>
       </c>
@@ -3325,6 +3574,7 @@
       <c r="I107" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
@@ -3339,6 +3589,7 @@
       <c r="D108" s="7" t="n">
         <v>204</v>
       </c>
+      <c r="E108" s="0"/>
       <c r="F108" s="2" t="s">
         <v>12</v>
       </c>
@@ -3351,6 +3602,7 @@
       <c r="I108" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
@@ -3365,6 +3617,7 @@
       <c r="D109" s="7" t="n">
         <v>34</v>
       </c>
+      <c r="E109" s="0"/>
       <c r="F109" s="2" t="s">
         <v>12</v>
       </c>
@@ -3377,6 +3630,7 @@
       <c r="I109" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
@@ -3391,6 +3645,7 @@
       <c r="D110" s="7" t="n">
         <v>43</v>
       </c>
+      <c r="E110" s="0"/>
       <c r="F110" s="2" t="s">
         <v>28</v>
       </c>
@@ -3403,6 +3658,7 @@
       <c r="I110" s="2" t="n">
         <v>214</v>
       </c>
+      <c r="J110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
@@ -3417,6 +3673,7 @@
       <c r="D111" s="7" t="n">
         <v>62</v>
       </c>
+      <c r="E111" s="0"/>
       <c r="F111" s="2" t="s">
         <v>27</v>
       </c>
@@ -3429,6 +3686,7 @@
       <c r="I111" s="2" t="n">
         <v>309</v>
       </c>
+      <c r="J111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
@@ -3443,6 +3701,7 @@
       <c r="D112" s="7" t="n">
         <v>18</v>
       </c>
+      <c r="E112" s="0"/>
       <c r="F112" s="2" t="s">
         <v>12</v>
       </c>
@@ -3455,6 +3714,7 @@
       <c r="I112" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
@@ -3469,6 +3729,7 @@
       <c r="D113" s="7" t="n">
         <v>23</v>
       </c>
+      <c r="E113" s="0"/>
       <c r="F113" s="2" t="s">
         <v>12</v>
       </c>
@@ -3481,6 +3742,7 @@
       <c r="I113" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
@@ -3495,6 +3757,7 @@
       <c r="D114" s="7" t="n">
         <v>17</v>
       </c>
+      <c r="E114" s="0"/>
       <c r="F114" s="2" t="s">
         <v>12</v>
       </c>
@@ -3507,6 +3770,7 @@
       <c r="I114" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
@@ -3521,6 +3785,7 @@
       <c r="D115" s="7" t="n">
         <v>45</v>
       </c>
+      <c r="E115" s="0"/>
       <c r="F115" s="2" t="s">
         <v>27</v>
       </c>
@@ -3533,6 +3798,7 @@
       <c r="I115" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
@@ -3547,6 +3813,7 @@
       <c r="D116" s="7" t="n">
         <v>33</v>
       </c>
+      <c r="E116" s="0"/>
       <c r="F116" s="2" t="s">
         <v>28</v>
       </c>
@@ -3559,6 +3826,7 @@
       <c r="I116" s="2" t="n">
         <v>500</v>
       </c>
+      <c r="J116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
@@ -3573,6 +3841,7 @@
       <c r="D117" s="7" t="n">
         <v>4.4</v>
       </c>
+      <c r="E117" s="0"/>
       <c r="F117" s="2" t="s">
         <v>12</v>
       </c>
@@ -3602,6 +3871,7 @@
       <c r="D118" s="7" t="n">
         <v>5.28</v>
       </c>
+      <c r="E118" s="0"/>
       <c r="F118" s="2" t="s">
         <v>12</v>
       </c>
@@ -3631,6 +3901,7 @@
       <c r="D119" s="7" t="n">
         <v>5.8</v>
       </c>
+      <c r="E119" s="0"/>
       <c r="F119" s="2" t="s">
         <v>12</v>
       </c>
@@ -3660,6 +3931,7 @@
       <c r="D120" s="7" t="n">
         <v>5.6</v>
       </c>
+      <c r="E120" s="0"/>
       <c r="F120" s="2" t="s">
         <v>12</v>
       </c>
@@ -3689,6 +3961,7 @@
       <c r="D121" s="7" t="n">
         <v>48.5</v>
       </c>
+      <c r="E121" s="0"/>
       <c r="F121" s="2" t="s">
         <v>27</v>
       </c>
@@ -3698,6 +3971,8 @@
       <c r="H121" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I121" s="0"/>
+      <c r="J121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
@@ -3712,6 +3987,7 @@
       <c r="D122" s="7" t="n">
         <v>42.6</v>
       </c>
+      <c r="E122" s="0"/>
       <c r="F122" s="2" t="s">
         <v>28</v>
       </c>
@@ -3721,6 +3997,8 @@
       <c r="H122" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I122" s="0"/>
+      <c r="J122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
@@ -3735,6 +4013,7 @@
       <c r="D123" s="7" t="n">
         <v>2.1</v>
       </c>
+      <c r="E123" s="0"/>
       <c r="F123" s="2" t="s">
         <v>12</v>
       </c>
@@ -3744,6 +4023,8 @@
       <c r="H123" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
@@ -3756,6 +4037,7 @@
         <v>1.68</v>
       </c>
       <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
       <c r="F124" s="2" t="s">
         <v>28</v>
       </c>
@@ -3765,6 +4047,8 @@
       <c r="H124" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
@@ -3777,6 +4061,7 @@
         <v>1.45</v>
       </c>
       <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
       <c r="F125" s="2" t="s">
         <v>27</v>
       </c>
@@ -3786,6 +4071,8 @@
       <c r="H125" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
@@ -3796,6 +4083,7 @@
       </c>
       <c r="C126" s="0"/>
       <c r="D126" s="0"/>
+      <c r="E126" s="0"/>
       <c r="F126" s="2" t="s">
         <v>12</v>
       </c>
@@ -3805,6 +4093,8 @@
       <c r="H126" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I126" s="0"/>
+      <c r="J126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
@@ -3815,6 +4105,7 @@
       </c>
       <c r="C127" s="0"/>
       <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
       <c r="F127" s="2" t="s">
         <v>12</v>
       </c>
@@ -3824,6 +4115,8 @@
       <c r="H127" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I127" s="0"/>
+      <c r="J127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
@@ -3838,6 +4131,7 @@
       <c r="D128" s="7" t="n">
         <v>17</v>
       </c>
+      <c r="E128" s="0"/>
       <c r="F128" s="2" t="s">
         <v>27</v>
       </c>
@@ -3847,6 +4141,7 @@
       <c r="H128" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I128" s="0"/>
       <c r="J128" s="2" t="n">
         <v>7.4</v>
       </c>
@@ -3864,6 +4159,7 @@
       <c r="D129" s="7" t="n">
         <v>14.8</v>
       </c>
+      <c r="E129" s="0"/>
       <c r="F129" s="2" t="s">
         <v>28</v>
       </c>
@@ -3873,6 +4169,7 @@
       <c r="H129" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I129" s="0"/>
       <c r="J129" s="2" t="n">
         <v>7.4</v>
       </c>
@@ -3886,6 +4183,7 @@
       </c>
       <c r="C130" s="0"/>
       <c r="D130" s="0"/>
+      <c r="E130" s="0"/>
       <c r="F130" s="2" t="s">
         <v>12</v>
       </c>
@@ -3895,6 +4193,8 @@
       <c r="H130" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I130" s="0"/>
+      <c r="J130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
@@ -3909,6 +4209,7 @@
       <c r="D131" s="7" t="n">
         <v>4.6</v>
       </c>
+      <c r="E131" s="0"/>
       <c r="F131" s="2" t="s">
         <v>12</v>
       </c>
@@ -3918,6 +4219,7 @@
       <c r="H131" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I131" s="0"/>
       <c r="J131" s="2" t="n">
         <v>2.4</v>
       </c>
@@ -3935,6 +4237,7 @@
       <c r="D132" s="7" t="n">
         <v>6.1</v>
       </c>
+      <c r="E132" s="0"/>
       <c r="F132" s="2" t="s">
         <v>12</v>
       </c>
@@ -3944,6 +4247,7 @@
       <c r="H132" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="I132" s="0"/>
       <c r="J132" s="2" t="n">
         <v>2.4</v>
       </c>
@@ -3961,6 +4265,7 @@
       <c r="D133" s="7" t="n">
         <v>5.8</v>
       </c>
+      <c r="E133" s="0"/>
       <c r="F133" s="2" t="s">
         <v>12</v>
       </c>
@@ -3970,6 +4275,7 @@
       <c r="H133" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="I133" s="0"/>
       <c r="J133" s="2" t="n">
         <v>2.4</v>
       </c>
@@ -3987,6 +4293,7 @@
       <c r="D134" s="7" t="n">
         <v>6.5</v>
       </c>
+      <c r="E134" s="0"/>
       <c r="F134" s="2" t="s">
         <v>12</v>
       </c>
@@ -3996,6 +4303,7 @@
       <c r="H134" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I134" s="0"/>
       <c r="J134" s="2" t="n">
         <v>2.4</v>
       </c>
@@ -4013,6 +4321,7 @@
       <c r="D135" s="7" t="n">
         <v>5.1</v>
       </c>
+      <c r="E135" s="0"/>
       <c r="F135" s="2" t="s">
         <v>12</v>
       </c>
@@ -4022,6 +4331,7 @@
       <c r="H135" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I135" s="0"/>
       <c r="J135" s="2" t="n">
         <v>2.4</v>
       </c>
@@ -4039,6 +4349,7 @@
       <c r="D136" s="7" t="n">
         <v>4.6</v>
       </c>
+      <c r="E136" s="0"/>
       <c r="F136" s="2" t="s">
         <v>12</v>
       </c>
@@ -4051,6 +4362,7 @@
       <c r="I136" s="2" t="n">
         <v>6.6</v>
       </c>
+      <c r="J136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
@@ -4065,6 +4377,7 @@
       <c r="D137" s="7" t="n">
         <v>6.1</v>
       </c>
+      <c r="E137" s="0"/>
       <c r="F137" s="2" t="s">
         <v>12</v>
       </c>
@@ -4077,6 +4390,7 @@
       <c r="I137" s="2" t="n">
         <v>6.6</v>
       </c>
+      <c r="J137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
@@ -4091,6 +4405,7 @@
       <c r="D138" s="7" t="n">
         <v>5.8</v>
       </c>
+      <c r="E138" s="0"/>
       <c r="F138" s="2" t="s">
         <v>12</v>
       </c>
@@ -4103,6 +4418,7 @@
       <c r="I138" s="2" t="n">
         <v>6.6</v>
       </c>
+      <c r="J138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
@@ -4117,6 +4433,7 @@
       <c r="D139" s="7" t="n">
         <v>6.5</v>
       </c>
+      <c r="E139" s="0"/>
       <c r="F139" s="2" t="s">
         <v>12</v>
       </c>
@@ -4129,6 +4446,7 @@
       <c r="I139" s="2" t="n">
         <v>6.5</v>
       </c>
+      <c r="J139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
@@ -4143,6 +4461,7 @@
       <c r="D140" s="7" t="n">
         <v>5.1</v>
       </c>
+      <c r="E140" s="0"/>
       <c r="F140" s="2" t="s">
         <v>12</v>
       </c>
@@ -4155,6 +4474,7 @@
       <c r="I140" s="2" t="n">
         <v>6.6</v>
       </c>
+      <c r="J140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
@@ -4184,6 +4504,7 @@
       <c r="I141" s="2" t="n">
         <v>4.4</v>
       </c>
+      <c r="J141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
@@ -4198,6 +4519,7 @@
       <c r="D142" s="7" t="n">
         <v>775</v>
       </c>
+      <c r="E142" s="0"/>
       <c r="F142" s="2" t="s">
         <v>12</v>
       </c>
@@ -4207,6 +4529,8 @@
       <c r="H142" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="I142" s="0"/>
+      <c r="J142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
@@ -4221,6 +4545,7 @@
       <c r="D143" s="7" t="n">
         <v>2000</v>
       </c>
+      <c r="E143" s="0"/>
       <c r="F143" s="2" t="s">
         <v>12</v>
       </c>
@@ -4230,6 +4555,8 @@
       <c r="H143" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="I143" s="0"/>
+      <c r="J143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
@@ -4244,6 +4571,7 @@
       <c r="D144" s="7" t="n">
         <v>430</v>
       </c>
+      <c r="E144" s="0"/>
       <c r="F144" s="2" t="s">
         <v>12</v>
       </c>
@@ -4253,6 +4581,8 @@
       <c r="H144" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
@@ -4267,6 +4597,7 @@
       <c r="D145" s="7" t="n">
         <v>665</v>
       </c>
+      <c r="E145" s="0"/>
       <c r="F145" s="2" t="s">
         <v>12</v>
       </c>
@@ -4276,6 +4607,8 @@
       <c r="H145" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="I145" s="0"/>
+      <c r="J145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
@@ -4290,6 +4623,7 @@
       <c r="D146" s="7" t="n">
         <v>295</v>
       </c>
+      <c r="E146" s="0"/>
       <c r="F146" s="2" t="s">
         <v>12</v>
       </c>
@@ -4299,6 +4633,8 @@
       <c r="H146" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="I146" s="0"/>
+      <c r="J146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
@@ -4313,6 +4649,7 @@
       <c r="D147" s="7" t="n">
         <v>190</v>
       </c>
+      <c r="E147" s="0"/>
       <c r="F147" s="2" t="s">
         <v>12</v>
       </c>
@@ -4322,6 +4659,8 @@
       <c r="H147" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I147" s="0"/>
+      <c r="J147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
@@ -4336,6 +4675,7 @@
       <c r="D148" s="7" t="n">
         <v>2.59</v>
       </c>
+      <c r="E148" s="0"/>
       <c r="F148" s="2" t="s">
         <v>12</v>
       </c>
@@ -4348,6 +4688,7 @@
       <c r="I148" s="2" t="n">
         <v>4.9</v>
       </c>
+      <c r="J148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
@@ -4362,6 +4703,7 @@
       <c r="D149" s="7" t="n">
         <v>3.9</v>
       </c>
+      <c r="E149" s="0"/>
       <c r="F149" s="2" t="s">
         <v>12</v>
       </c>
@@ -4371,6 +4713,8 @@
       <c r="H149" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
@@ -4385,6 +4729,7 @@
       <c r="D150" s="7" t="n">
         <v>2.3</v>
       </c>
+      <c r="E150" s="0"/>
       <c r="F150" s="2" t="s">
         <v>12</v>
       </c>
@@ -4394,6 +4739,8 @@
       <c r="H150" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I150" s="0"/>
+      <c r="J150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
@@ -4408,6 +4755,7 @@
       <c r="D151" s="7" t="n">
         <v>65</v>
       </c>
+      <c r="E151" s="0"/>
       <c r="F151" s="2" t="s">
         <v>12</v>
       </c>
@@ -4420,6 +4768,7 @@
       <c r="I151" s="2" t="n">
         <v>194</v>
       </c>
+      <c r="J151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
@@ -4434,6 +4783,7 @@
       <c r="D152" s="7" t="n">
         <v>85</v>
       </c>
+      <c r="E152" s="0"/>
       <c r="F152" s="2" t="s">
         <v>12</v>
       </c>
@@ -4446,6 +4796,7 @@
       <c r="I152" s="2" t="n">
         <v>264</v>
       </c>
+      <c r="J152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
@@ -4460,6 +4811,7 @@
       <c r="D153" s="7" t="n">
         <v>128</v>
       </c>
+      <c r="E153" s="0"/>
       <c r="F153" s="2" t="s">
         <v>12</v>
       </c>
@@ -4472,6 +4824,7 @@
       <c r="I153" s="2" t="n">
         <v>397</v>
       </c>
+      <c r="J153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
@@ -4486,6 +4839,7 @@
       <c r="D154" s="7" t="n">
         <v>150</v>
       </c>
+      <c r="E154" s="0"/>
       <c r="F154" s="2" t="s">
         <v>12</v>
       </c>
@@ -4498,6 +4852,7 @@
       <c r="I154" s="2" t="n">
         <v>397</v>
       </c>
+      <c r="J154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
@@ -4512,6 +4867,7 @@
       <c r="D155" s="7" t="n">
         <v>220</v>
       </c>
+      <c r="E155" s="0"/>
       <c r="F155" s="2" t="s">
         <v>12</v>
       </c>
@@ -4524,6 +4880,7 @@
       <c r="I155" s="2" t="n">
         <v>397</v>
       </c>
+      <c r="J155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
@@ -4538,6 +4895,7 @@
       <c r="D156" s="7" t="n">
         <v>3.6</v>
       </c>
+      <c r="E156" s="0"/>
       <c r="F156" s="2" t="s">
         <v>12</v>
       </c>
@@ -4547,6 +4905,8 @@
       <c r="H156" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I156" s="0"/>
+      <c r="J156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
@@ -4561,6 +4921,7 @@
       <c r="D157" s="7" t="n">
         <v>53.7</v>
       </c>
+      <c r="E157" s="0"/>
       <c r="F157" s="2" t="s">
         <v>12</v>
       </c>
@@ -4570,6 +4931,8 @@
       <c r="H157" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I157" s="0"/>
+      <c r="J157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
@@ -4584,6 +4947,7 @@
       <c r="D158" s="7" t="n">
         <v>32.6</v>
       </c>
+      <c r="E158" s="0"/>
       <c r="F158" s="2" t="s">
         <v>27</v>
       </c>
@@ -4593,6 +4957,8 @@
       <c r="H158" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I158" s="0"/>
+      <c r="J158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
@@ -4607,6 +4973,7 @@
       <c r="D159" s="7" t="n">
         <v>32.3</v>
       </c>
+      <c r="E159" s="0"/>
       <c r="F159" s="2" t="s">
         <v>28</v>
       </c>
@@ -4616,6 +4983,8 @@
       <c r="H159" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I159" s="0"/>
+      <c r="J159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
@@ -4630,6 +4999,7 @@
       <c r="D160" s="7" t="n">
         <v>36.6</v>
       </c>
+      <c r="E160" s="0"/>
       <c r="F160" s="2" t="s">
         <v>12</v>
       </c>
@@ -4639,6 +5009,8 @@
       <c r="H160" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I160" s="0"/>
+      <c r="J160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
@@ -4653,6 +5025,7 @@
       <c r="D161" s="7" t="n">
         <v>92.7</v>
       </c>
+      <c r="E161" s="0"/>
       <c r="F161" s="2" t="s">
         <v>27</v>
       </c>
@@ -4662,6 +5035,8 @@
       <c r="H161" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I161" s="0"/>
+      <c r="J161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
@@ -4676,6 +5051,7 @@
       <c r="D162" s="7" t="n">
         <v>93.1</v>
       </c>
+      <c r="E162" s="0"/>
       <c r="F162" s="2" t="s">
         <v>28</v>
       </c>
@@ -4685,6 +5061,8 @@
       <c r="H162" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I162" s="0"/>
+      <c r="J162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
@@ -4699,6 +5077,7 @@
       <c r="D163" s="7" t="n">
         <v>1.02</v>
       </c>
+      <c r="E163" s="0"/>
       <c r="F163" s="2" t="s">
         <v>12</v>
       </c>
@@ -4708,6 +5087,8 @@
       <c r="H163" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
@@ -4722,6 +5103,7 @@
       <c r="D164" s="7" t="n">
         <v>0.7</v>
       </c>
+      <c r="E164" s="0"/>
       <c r="F164" s="2" t="s">
         <v>12</v>
       </c>
@@ -4731,6 +5113,8 @@
       <c r="H164" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I164" s="0"/>
+      <c r="J164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
@@ -4745,6 +5129,7 @@
       <c r="D165" s="7" t="n">
         <v>13.1</v>
       </c>
+      <c r="E165" s="0"/>
       <c r="F165" s="2" t="s">
         <v>12</v>
       </c>
@@ -4754,6 +5139,8 @@
       <c r="H165" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
@@ -4768,6 +5155,7 @@
       <c r="D166" s="7" t="n">
         <v>147</v>
       </c>
+      <c r="E166" s="0"/>
       <c r="F166" s="2" t="s">
         <v>12</v>
       </c>
@@ -4797,6 +5185,7 @@
       <c r="D167" s="7" t="n">
         <v>147</v>
       </c>
+      <c r="E167" s="0"/>
       <c r="F167" s="2" t="s">
         <v>12</v>
       </c>
@@ -4826,6 +5215,7 @@
       <c r="D168" s="7" t="n">
         <v>143</v>
       </c>
+      <c r="E168" s="0"/>
       <c r="F168" s="2" t="s">
         <v>12</v>
       </c>
@@ -4855,6 +5245,7 @@
       <c r="D169" s="7" t="n">
         <v>142</v>
       </c>
+      <c r="E169" s="0"/>
       <c r="F169" s="2" t="s">
         <v>12</v>
       </c>
@@ -4884,6 +5275,7 @@
       <c r="D170" s="7" t="n">
         <v>145</v>
       </c>
+      <c r="E170" s="0"/>
       <c r="F170" s="2" t="s">
         <v>12</v>
       </c>
@@ -4913,6 +5305,7 @@
       <c r="D171" s="7" t="n">
         <v>5.6</v>
       </c>
+      <c r="E171" s="0"/>
       <c r="F171" s="2" t="s">
         <v>12</v>
       </c>
@@ -4922,6 +5315,7 @@
       <c r="H171" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I171" s="0"/>
       <c r="J171" s="2" t="n">
         <v>0.75</v>
       </c>
@@ -4939,6 +5333,7 @@
       <c r="D172" s="7" t="n">
         <v>69.2</v>
       </c>
+      <c r="E172" s="0"/>
       <c r="F172" s="2" t="s">
         <v>12</v>
       </c>
@@ -4948,6 +5343,8 @@
       <c r="H172" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I172" s="0"/>
+      <c r="J172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
@@ -4962,6 +5359,7 @@
       <c r="D173" s="7" t="n">
         <v>0.37</v>
       </c>
+      <c r="E173" s="0"/>
       <c r="F173" s="2" t="s">
         <v>12</v>
       </c>
@@ -4971,6 +5369,8 @@
       <c r="H173" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I173" s="0"/>
+      <c r="J173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
@@ -4985,6 +5385,7 @@
       <c r="D174" s="7" t="n">
         <v>16.3</v>
       </c>
+      <c r="E174" s="0"/>
       <c r="F174" s="2" t="s">
         <v>12</v>
       </c>
@@ -4994,6 +5395,8 @@
       <c r="H174" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I174" s="0"/>
+      <c r="J174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="s">
@@ -5008,6 +5411,7 @@
       <c r="D175" s="7" t="n">
         <v>1.37</v>
       </c>
+      <c r="E175" s="0"/>
       <c r="F175" s="2" t="s">
         <v>12</v>
       </c>
@@ -5017,6 +5421,7 @@
       <c r="H175" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I175" s="0"/>
       <c r="J175" s="2" t="n">
         <v>0.31</v>
       </c>
@@ -5034,6 +5439,7 @@
       <c r="D176" s="7" t="n">
         <v>395</v>
       </c>
+      <c r="E176" s="0"/>
       <c r="F176" s="2" t="s">
         <v>12</v>
       </c>
@@ -5043,6 +5449,7 @@
       <c r="H176" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I176" s="0"/>
       <c r="J176" s="2" t="n">
         <v>50</v>
       </c>
@@ -5060,6 +5467,7 @@
       <c r="D177" s="7" t="n">
         <v>6.04</v>
       </c>
+      <c r="E177" s="0"/>
       <c r="F177" s="2" t="s">
         <v>27</v>
       </c>
@@ -5069,6 +5477,8 @@
       <c r="H177" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I177" s="0"/>
+      <c r="J177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
@@ -5083,6 +5493,7 @@
       <c r="D178" s="7" t="n">
         <v>5.06</v>
       </c>
+      <c r="E178" s="0"/>
       <c r="F178" s="2" t="s">
         <v>28</v>
       </c>
@@ -5092,6 +5503,8 @@
       <c r="H178" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I178" s="0"/>
+      <c r="J178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
@@ -5106,6 +5519,7 @@
       <c r="D179" s="7" t="n">
         <v>17.6</v>
       </c>
+      <c r="E179" s="0"/>
       <c r="F179" s="2" t="s">
         <v>12</v>
       </c>
@@ -5115,6 +5529,8 @@
       <c r="H179" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I179" s="0"/>
+      <c r="J179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
@@ -5129,6 +5545,7 @@
       <c r="D180" s="7" t="n">
         <v>47.1</v>
       </c>
+      <c r="E180" s="0"/>
       <c r="F180" s="2" t="s">
         <v>12</v>
       </c>
@@ -5138,6 +5555,8 @@
       <c r="H180" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I180" s="0"/>
+      <c r="J180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
@@ -5148,6 +5567,7 @@
       </c>
       <c r="C181" s="0"/>
       <c r="D181" s="0"/>
+      <c r="E181" s="0"/>
       <c r="F181" s="2" t="s">
         <v>12</v>
       </c>
@@ -5157,6 +5577,8 @@
       <c r="H181" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I181" s="0"/>
+      <c r="J181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
@@ -5167,6 +5589,7 @@
       </c>
       <c r="C182" s="0"/>
       <c r="D182" s="0"/>
+      <c r="E182" s="0"/>
       <c r="F182" s="2" t="s">
         <v>12</v>
       </c>
@@ -5176,6 +5599,8 @@
       <c r="H182" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I182" s="0"/>
+      <c r="J182" s="0"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
@@ -5186,6 +5611,7 @@
       </c>
       <c r="C183" s="0"/>
       <c r="D183" s="0"/>
+      <c r="E183" s="0"/>
       <c r="F183" s="2" t="s">
         <v>12</v>
       </c>
@@ -5195,6 +5621,8 @@
       <c r="H183" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I183" s="0"/>
+      <c r="J183" s="0"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
@@ -5205,6 +5633,7 @@
       </c>
       <c r="C184" s="0"/>
       <c r="D184" s="0"/>
+      <c r="E184" s="0"/>
       <c r="F184" s="2" t="s">
         <v>12</v>
       </c>
@@ -5214,6 +5643,8 @@
       <c r="H184" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I184" s="0"/>
+      <c r="J184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
@@ -5224,6 +5655,7 @@
       </c>
       <c r="C185" s="0"/>
       <c r="D185" s="0"/>
+      <c r="E185" s="0"/>
       <c r="F185" s="2" t="s">
         <v>12</v>
       </c>
@@ -5233,6 +5665,8 @@
       <c r="H185" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I185" s="0"/>
+      <c r="J185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
@@ -5243,6 +5677,7 @@
       </c>
       <c r="C186" s="0"/>
       <c r="D186" s="0"/>
+      <c r="E186" s="0"/>
       <c r="F186" s="2" t="s">
         <v>12</v>
       </c>
@@ -5252,6 +5687,8 @@
       <c r="H186" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I186" s="0"/>
+      <c r="J186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
@@ -5266,6 +5703,7 @@
       <c r="D187" s="7" t="n">
         <v>92</v>
       </c>
+      <c r="E187" s="0"/>
       <c r="F187" s="2" t="s">
         <v>12</v>
       </c>
@@ -5275,6 +5713,8 @@
       <c r="H187" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I187" s="0"/>
+      <c r="J187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
@@ -5289,6 +5729,7 @@
       <c r="D188" s="7" t="n">
         <v>92</v>
       </c>
+      <c r="E188" s="0"/>
       <c r="F188" s="2" t="s">
         <v>12</v>
       </c>
@@ -5298,6 +5739,8 @@
       <c r="H188" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I188" s="0"/>
+      <c r="J188" s="0"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
@@ -5312,6 +5755,7 @@
       <c r="D189" s="7" t="n">
         <v>2.1</v>
       </c>
+      <c r="E189" s="0"/>
       <c r="F189" s="2" t="s">
         <v>12</v>
       </c>
@@ -5324,6 +5768,7 @@
       <c r="I189" s="2" t="n">
         <v>8.5</v>
       </c>
+      <c r="J189" s="0"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
@@ -5338,6 +5783,7 @@
       <c r="D190" s="7" t="n">
         <v>1.2</v>
       </c>
+      <c r="E190" s="0"/>
       <c r="F190" s="2" t="s">
         <v>12</v>
       </c>
@@ -5350,6 +5796,7 @@
       <c r="I190" s="2" t="n">
         <v>8.5</v>
       </c>
+      <c r="J190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
@@ -5364,6 +5811,7 @@
       <c r="D191" s="7" t="n">
         <v>1.5</v>
       </c>
+      <c r="E191" s="0"/>
       <c r="F191" s="2" t="s">
         <v>12</v>
       </c>
@@ -5376,6 +5824,7 @@
       <c r="I191" s="2" t="n">
         <v>8.5</v>
       </c>
+      <c r="J191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
@@ -5390,6 +5839,7 @@
       <c r="D192" s="7" t="n">
         <v>1.7</v>
       </c>
+      <c r="E192" s="0"/>
       <c r="F192" s="2" t="s">
         <v>12</v>
       </c>
@@ -5402,6 +5852,7 @@
       <c r="I192" s="2" t="n">
         <v>8.5</v>
       </c>
+      <c r="J192" s="0"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
@@ -5416,6 +5867,7 @@
       <c r="D193" s="7" t="n">
         <v>400</v>
       </c>
+      <c r="E193" s="0"/>
       <c r="F193" s="2" t="s">
         <v>12</v>
       </c>
@@ -5425,6 +5877,7 @@
       <c r="H193" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="J193" s="0"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
@@ -5439,6 +5892,7 @@
       <c r="D194" s="7" t="n">
         <v>6.4</v>
       </c>
+      <c r="E194" s="0"/>
       <c r="F194" s="2" t="s">
         <v>12</v>
       </c>
@@ -5448,6 +5902,7 @@
       <c r="H194" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="J194" s="0"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
@@ -5462,6 +5917,7 @@
       <c r="D195" s="7" t="n">
         <v>15</v>
       </c>
+      <c r="E195" s="0"/>
       <c r="F195" s="2" t="s">
         <v>12</v>
       </c>
@@ -5471,6 +5927,7 @@
       <c r="H195" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J195" s="0"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
@@ -5485,6 +5942,7 @@
       <c r="D196" s="7" t="n">
         <v>17.1</v>
       </c>
+      <c r="E196" s="0"/>
       <c r="F196" s="2" t="s">
         <v>12</v>
       </c>
@@ -5494,6 +5952,7 @@
       <c r="H196" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="J196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
@@ -5508,6 +5967,7 @@
       <c r="D197" s="7" t="n">
         <v>9.7</v>
       </c>
+      <c r="E197" s="0"/>
       <c r="F197" s="2" t="s">
         <v>12</v>
       </c>
@@ -5519,6 +5979,3318 @@
       </c>
       <c r="J197" s="2" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D198" s="9" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C199" s="9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D199" s="9" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200" s="9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D200" s="9" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H200" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" s="9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D201" s="9" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C202" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D202" s="9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C203" s="9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D203" s="9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204" s="9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D204" s="9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H204" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D205" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206" s="9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D206" s="9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D207" s="9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208" s="9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D208" s="9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209" s="9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D209" s="9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" s="9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D210" s="9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H210" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C211" s="9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D211" s="9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H211" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212" s="9" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D212" s="9" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H212" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213" s="9" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D213" s="9" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C214" s="9" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D214" s="9" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H214" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C215" s="9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D215" s="9" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" s="9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D216" s="9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H216" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217" s="9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D217" s="9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H217" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D218" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H218" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="D219" s="9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="D220" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G220" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H220" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D221" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H221" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D222" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H222" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C223" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D223" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H223" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C224" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D224" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="D225" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H225" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C226" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D226" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C227" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D227" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C228" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="D228" s="9" t="n">
+        <v>121</v>
+      </c>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H228" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C229" s="9" t="n">
+        <v>88</v>
+      </c>
+      <c r="D229" s="9" t="n">
+        <v>122</v>
+      </c>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H229" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="D230" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H230" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C231" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="D231" s="9" t="n">
+        <v>106</v>
+      </c>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H231" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C232" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="D232" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H232" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C233" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="D233" s="9" t="n">
+        <v>86</v>
+      </c>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H233" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C234" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D234" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G234" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H234" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C235" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="D235" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H235" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="D236" s="9" t="n">
+        <v>102</v>
+      </c>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H236" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C237" s="9" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D237" s="9" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H237" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C238" s="9" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D238" s="9" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H238" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C239" s="9" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D239" s="9" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E239" s="9"/>
+      <c r="F239" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H239" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C240" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D240" s="9" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E240" s="9"/>
+      <c r="F240" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H240" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C241" s="9" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D241" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H241" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C242" s="9" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D242" s="9" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H242" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D243" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H243" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D244" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="9" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D245" s="9" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H245" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C246" s="9" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D246" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E246" s="9"/>
+      <c r="F246" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H246" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C247" s="9" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D247" s="9" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H247" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C248" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D248" s="9" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H248" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C249" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D249" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C250" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D250" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G250" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H250" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C251" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D251" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G251" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H251" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C252" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D252" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H252" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C253" s="9" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D253" s="9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H253" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C254" s="9" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D254" s="9" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H254" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C255" s="9" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D255" s="9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E255" s="9"/>
+      <c r="F255" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H255" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C256" s="9" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D256" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E256" s="9"/>
+      <c r="F256" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G256" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H256" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C257" s="9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D257" s="9" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E257" s="9"/>
+      <c r="F257" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H257" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C258" s="9" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D258" s="9" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H258" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C259" s="9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D259" s="9" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H259" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C260" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="D260" s="9" t="n">
+        <v>345</v>
+      </c>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H260" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C261" s="9" t="n">
+        <v>135</v>
+      </c>
+      <c r="D261" s="9" t="n">
+        <v>460</v>
+      </c>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C262" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="D262" s="9" t="n">
+        <v>600</v>
+      </c>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G262" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H262" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C263" s="9" t="n">
+        <v>140</v>
+      </c>
+      <c r="D263" s="9" t="n">
+        <v>635</v>
+      </c>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H263" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C264" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="D264" s="9" t="n">
+        <v>350</v>
+      </c>
+      <c r="E264" s="9"/>
+      <c r="F264" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H264" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C265" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="D265" s="9" t="n">
+        <v>350</v>
+      </c>
+      <c r="E265" s="9"/>
+      <c r="F265" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H265" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C266" s="9" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D266" s="9" t="n">
+        <v>69.6</v>
+      </c>
+      <c r="E266" s="9"/>
+      <c r="F266" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G266" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H266" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C267" s="9" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D267" s="9" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H267" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C268" s="9" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D268" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H268" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C269" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D269" s="9" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H269" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C270" s="9" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D270" s="9" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G270" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H270" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C271" s="9" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D271" s="9" t="n">
+        <v>76.9</v>
+      </c>
+      <c r="E271" s="9"/>
+      <c r="F271" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H271" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C272" s="9" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D272" s="9" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E272" s="9"/>
+      <c r="F272" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G272" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H272" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C273" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D273" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E273" s="10"/>
+      <c r="F273" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H273" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C274" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D274" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G274" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H274" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C275" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D275" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H275" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C276" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D276" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G276" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H276" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C277" s="9" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D277" s="9" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G277" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H277" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C278" s="9" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D278" s="9" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H278" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C279" s="9" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D279" s="9" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E279" s="9"/>
+      <c r="F279" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G279" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H279" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C280" s="9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D280" s="9" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H280" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C281" s="9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D281" s="9" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H281" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C282" s="9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D282" s="9" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H282" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C283" s="9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D283" s="9" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E283" s="9"/>
+      <c r="F283" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G283" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H283" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C284" s="9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D284" s="9" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G284" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H284" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C285" s="9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D285" s="9" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H285" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C286" s="9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D286" s="9" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G286" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H286" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C287" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" s="9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G287" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H287" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C288" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H288" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C289" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" s="9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E289" s="9"/>
+      <c r="F289" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H289" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C290" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" s="9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H290" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C291" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" s="9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E291" s="9"/>
+      <c r="F291" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H291" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C292" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H292" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C293" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" s="9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H293" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C294" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" s="9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E294" s="9"/>
+      <c r="F294" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H294" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C295" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" s="9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E295" s="9"/>
+      <c r="F295" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H295" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C296" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" s="9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G296" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H296" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C297" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" s="9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H297" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C298" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" s="9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G298" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H298" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C299" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" s="9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H299" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C300" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G300" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H300" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C301" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D301" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G301" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H301" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C302" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D302" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G302" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H302" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C303" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" s="9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G303" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H303" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C304" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" s="9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G304" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H304" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C305" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" s="9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G305" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H305" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C306" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D306" s="9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G306" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H306" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C307" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D307" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G307" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H307" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C308" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D308" s="9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G308" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H308" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C309" s="9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D309" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E309" s="9"/>
+      <c r="F309" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G309" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H309" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C310" s="9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D310" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E310" s="9"/>
+      <c r="F310" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G310" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H310" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C311" s="9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D311" s="9" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="E311" s="9"/>
+      <c r="F311" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G311" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H311" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C312" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" s="9" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H312" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C313" s="9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D313" s="9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E313" s="9"/>
+      <c r="F313" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H313" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C314" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D314" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E314" s="9"/>
+      <c r="F314" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G314" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H314" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C315" s="9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D315" s="9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G315" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H315" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C316" s="9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D316" s="9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E316" s="9"/>
+      <c r="F316" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G316" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H316" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C317" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D317" s="9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E317" s="9"/>
+      <c r="F317" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G317" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H317" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C318" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D318" s="9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H318" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C319" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D319" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E319" s="9"/>
+      <c r="F319" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G319" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H319" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C320" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D320" s="9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E320" s="9"/>
+      <c r="F320" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G320" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H320" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C321" s="9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D321" s="9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E321" s="9"/>
+      <c r="F321" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H321" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C322" s="9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D322" s="9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E322" s="9"/>
+      <c r="F322" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G322" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H322" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C323" s="9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D323" s="9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E323" s="9"/>
+      <c r="F323" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G323" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H323" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C324" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E324" s="9"/>
+      <c r="F324" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G324" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H324" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C325" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E325" s="9"/>
+      <c r="F325" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G325" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H325" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C326" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E326" s="9"/>
+      <c r="F326" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G326" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H326" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E327" s="9"/>
+      <c r="F327" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G327" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H327" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C328" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G328" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H328" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C329" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D329" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G329" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H329" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C330" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E330" s="9"/>
+      <c r="F330" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G330" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H330" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C331" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G331" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H331" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C332" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" s="9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E332" s="9"/>
+      <c r="F332" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G332" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H332" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C333" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E333" s="9"/>
+      <c r="F333" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H333" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B334" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C334" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E334" s="9"/>
+      <c r="F334" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G334" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H334" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C335" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" s="9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E335" s="9"/>
+      <c r="F335" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G335" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H335" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
